--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1451272.31094414</v>
+        <v>-1453753.230769599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834739</v>
+        <v>10721426.73834738</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767344</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
         <v>327.7628950335566</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1430,13 +1430,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>30.24144032428404</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.63054522359685</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,7 +1528,7 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719018</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.0120060829209</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
@@ -1582,10 +1582,10 @@
         <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>43.18668621889577</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494646</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.9512250263834</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>340.4948229672556</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>59.80446418205211</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579956</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104942</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
@@ -1670,7 +1670,7 @@
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689272</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>121.8924599734829</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
@@ -1780,7 +1780,7 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292091</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
@@ -1822,10 +1822,10 @@
         <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>76.12561596669974</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>198.7895088019107</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1859,7 +1859,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>9.362935956137846</v>
+        <v>124.8355288547433</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290878</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1198840074562</v>
+        <v>74.7201898124933</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085012</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721219</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330917</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8597317086018</v>
+        <v>70.85973170860173</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411911</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432835</v>
+        <v>15.03686946432829</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>274.7162491948571</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2081,10 +2081,10 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>9.36293595613758</v>
       </c>
       <c r="V20" t="n">
-        <v>201.5926153659754</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
         <v>275.345685511694</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249337</v>
+        <v>74.72018981249336</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9383736358131</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8597317086018</v>
+        <v>133.2594259035643</v>
       </c>
       <c r="I22" t="n">
         <v>22.45713720411911</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,22 +2476,22 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290885</v>
+        <v>93.35153789290884</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249337</v>
+        <v>137.1198840074559</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085019</v>
+        <v>72.53867944085017</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721226</v>
+        <v>71.52576481721225</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330924</v>
+        <v>92.13052505330923</v>
       </c>
       <c r="H25" t="n">
-        <v>133.2594259035647</v>
+        <v>70.85973170860179</v>
       </c>
       <c r="I25" t="n">
         <v>22.45713720411911</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,22 +2713,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124552</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958338</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3323,16 +3323,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C37" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F37" t="n">
-        <v>91.27556587748694</v>
+        <v>89.94326605921978</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115151</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>92.28848050112541</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>98.02980050866735</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007084</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,16 +3797,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,19 +3946,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>197.9921611783842</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
         <v>230.0675382420299</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.6864980364936</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010729</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846411</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>205.4124289181749</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.052518175211</v>
+        <v>2140.018136355092</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828185</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597802</v>
+        <v>724.7840324589724</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.51231048965</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.51231048965</v>
+        <v>2502.96540107118</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.238619488293</v>
+        <v>2502.96540107118</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979609</v>
+        <v>2140.018136355092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.6467572329432</v>
+        <v>636.6005218029468</v>
       </c>
       <c r="C13" t="n">
-        <v>516.9026415647598</v>
+        <v>636.6005218029468</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647598</v>
+        <v>636.6005218029468</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420903</v>
+        <v>515.8794954802775</v>
       </c>
       <c r="F13" t="n">
         <v>396.1816152420903</v>
@@ -5194,13 +5194,13 @@
         <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402571</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
         <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376953</v>
+        <v>1675.172438618963</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.884554376953</v>
+        <v>1447.6800176728</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.659451599716</v>
+        <v>1185.454914895563</v>
       </c>
       <c r="X13" t="n">
-        <v>993.8619679614222</v>
+        <v>984.6574312572693</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.1031548034592</v>
+        <v>791.0569193734628</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1485.580684958772</v>
+        <v>1154.780602148422</v>
       </c>
       <c r="C14" t="n">
-        <v>1485.580684958772</v>
+        <v>1154.780602148422</v>
       </c>
       <c r="D14" t="n">
-        <v>1154.507053611745</v>
+        <v>823.7069708013955</v>
       </c>
       <c r="E14" t="n">
-        <v>795.9108682732245</v>
+        <v>465.1107854628749</v>
       </c>
       <c r="F14" t="n">
-        <v>412.1170307433406</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645001</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="H14" t="n">
         <v>81.31694793299103</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573494</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.512310489647</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479258</v>
+        <v>2207.935722479256</v>
       </c>
       <c r="X14" t="n">
-        <v>2207.935722479258</v>
+        <v>1861.6620314779</v>
       </c>
       <c r="Y14" t="n">
-        <v>1844.98845776317</v>
+        <v>1498.714766761812</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,34 +5373,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.1355997018109</v>
+        <v>449.6453381885396</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3914840336276</v>
+        <v>449.6453381885396</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4669118810156</v>
+        <v>326.7207660359275</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583461</v>
+        <v>326.7207660359275</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201594</v>
+        <v>207.0228857977408</v>
       </c>
       <c r="G16" t="n">
-        <v>185.537235954602</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5470,16 +5470,16 @@
         <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1379.989992794427</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1379.989992794427</v>
+        <v>967.1670306535518</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.192509156133</v>
+        <v>766.3695470152579</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5919972723269</v>
+        <v>572.7690351314515</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1571.696340267698</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446369</v>
+        <v>966.228971144636</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628255</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5516,22 +5516,22 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3316.148310542365</v>
+        <v>3032.524312143411</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406592</v>
+        <v>2776.103125007638</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2497.97616994532</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2199.152111892037</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>1883.654480124023</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>399.35235706258</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604111</v>
+        <v>89.19609340604106</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.696340267698</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1277.375523535083</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446358</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628257</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>3316.148310542365</v>
       </c>
       <c r="V20" t="n">
-        <v>2776.103125007638</v>
+        <v>3059.727123406591</v>
       </c>
       <c r="W20" t="n">
-        <v>2497.97616994532</v>
+        <v>2781.600168344274</v>
       </c>
       <c r="X20" t="n">
-        <v>2199.152111892037</v>
+        <v>2482.776110290991</v>
       </c>
       <c r="Y20" t="n">
-        <v>1883.654480124023</v>
+        <v>2167.278478522976</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>632.1517731235544</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034449</v>
+        <v>537.8572904034445</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989062</v>
+        <v>462.3823511989057</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879839</v>
+        <v>389.1109578243096</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>316.8627105341962</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>223.8015741167121</v>
       </c>
       <c r="H22" t="n">
         <v>89.19609340604111</v>
@@ -5908,16 +5908,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459976</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324335</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
         <v>73.3777548224824</v>
@@ -5987,28 +5987,28 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>867.4332849217524</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.526753844413</v>
+        <v>1318.467498170161</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1851.999402842085</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2398.778219900867</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6020,19 +6020,19 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>639.0174115138534</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937439</v>
+        <v>544.7229287937434</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892051</v>
+        <v>406.2179954528789</v>
       </c>
       <c r="E25" t="n">
-        <v>395.976596214609</v>
+        <v>332.9466020782828</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7283489244956</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>230.6672125070115</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
         <v>96.0617317963401</v>
@@ -6145,7 +6145,7 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
         <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>892.1750550720292</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>746.0241761362961</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697162</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467802</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>907.4660419013969</v>
+        <v>1045.699547878786</v>
       </c>
       <c r="L26" t="n">
-        <v>1771.984857554752</v>
+        <v>1496.733761127194</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>2030.265665799119</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2577.044482857901</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737238</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805549</v>
@@ -6303,28 +6303,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913841</v>
@@ -6373,7 +6373,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6388,19 +6388,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6443,49 +6443,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1561.793016801446</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N29" t="n">
-        <v>2580.208754682581</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3083.181225561918</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3477.955591919096</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6503,10 +6503,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,43 +6686,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982181</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350174</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,25 +6920,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329463</v>
@@ -6950,34 +6950,34 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127578</v>
+        <v>444.8926667912271</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586943</v>
+        <v>374.6279184371636</v>
       </c>
       <c r="D37" t="n">
-        <v>520.5255827463585</v>
+        <v>323.1827135986713</v>
       </c>
       <c r="E37" t="n">
-        <v>471.2839237378088</v>
+        <v>273.9410545901216</v>
       </c>
       <c r="F37" t="n">
-        <v>379.0863824474179</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G37" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
         <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388409</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691541</v>
+        <v>527.8696970476234</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7254,10 +7254,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7269,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866016</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325381</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D40" t="n">
-        <v>717.8684518940458</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>282.7820319214933</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.5635189974264</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>165.5321169459888</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429978</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="41">
@@ -7394,34 +7394,34 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307333</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495733</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218389</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7436,7 +7436,7 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668175</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
         <v>765.151745215813</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.9279421464337</v>
+        <v>698.2736995386226</v>
       </c>
       <c r="C43" t="n">
-        <v>626.6631937923702</v>
+        <v>529.3375166107157</v>
       </c>
       <c r="D43" t="n">
-        <v>575.2179889538779</v>
+        <v>477.8923117722234</v>
       </c>
       <c r="E43" t="n">
-        <v>525.9763299453282</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V43" t="n">
-        <v>1320.761403333651</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W43" t="n">
-        <v>1031.34423329669</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X43" t="n">
-        <v>902.0261169725165</v>
+        <v>1002.043308938549</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.9049724028299</v>
+        <v>879.9221643688624</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912092</v>
@@ -7655,43 +7655,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>795.5993767202771</v>
+        <v>402.2593958170917</v>
       </c>
       <c r="C46" t="n">
-        <v>626.6631937923702</v>
+        <v>331.9946474630283</v>
       </c>
       <c r="D46" t="n">
-        <v>575.2179889538779</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E46" t="n">
-        <v>525.9763299453282</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>927.4214224304656</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>736.6756869673484</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>607.3575706431745</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429978</v>
+        <v>485.2364260734879</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430635</v>
+        <v>157.2353108430634</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729014</v>
+        <v>184.4039433729013</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389611</v>
+        <v>191.494890938961</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333076</v>
+        <v>181.0856325333074</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883025</v>
+        <v>179.3553748830248</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383998</v>
+        <v>182.8301554383997</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586592</v>
+        <v>190.8908035586591</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266129</v>
+        <v>192.0103836266128</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875976</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372536</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672279</v>
+        <v>105.9629718672278</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253599</v>
+        <v>104.1013981253598</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677722</v>
+        <v>92.30246558677709</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359742</v>
+        <v>106.882960835974</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798329</v>
+        <v>105.3113487798328</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615461</v>
+        <v>120.821278461546</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.175525256466</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.199607408523</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.428412314078</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530927</v>
       </c>
       <c r="P10" t="n">
         <v>122.5080856662707</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>105.0013903333789</v>
       </c>
       <c r="L23" t="n">
-        <v>339.8144253784344</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>306.6874953089251</v>
+        <v>277.2206841544158</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>342.9371040273969</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.1187564935601</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665426</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>277.220684154416</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>292.0793818060026</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6872468453303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>216.1050053995907</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.71328173858502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>15.31887210909859</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838812</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>324.1971148842749</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>31.01937362132797</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>149.0918807700018</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339012</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>167.7369527970451</v>
+        <v>52.26435989843964</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>167.7369527970454</v>
       </c>
       <c r="V20" t="n">
-        <v>52.26435989844055</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1107728.768587734</v>
+        <v>1107728.768587733</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1244981.422026696</v>
+        <v>1244981.422026697</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1244981.422026696</v>
+        <v>1244981.422026697</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1244981.422026696</v>
+        <v>1244981.422026697</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>204819.0846792596</v>
       </c>
       <c r="D2" t="n">
-        <v>204824.6674514867</v>
+        <v>204824.6674514866</v>
       </c>
       <c r="E2" t="n">
         <v>182385.0002262437</v>
       </c>
       <c r="F2" t="n">
-        <v>182385.0002262436</v>
+        <v>182385.0002262435</v>
       </c>
       <c r="G2" t="n">
         <v>198632.7053116342</v>
@@ -26332,16 +26332,16 @@
         <v>198632.7053116342</v>
       </c>
       <c r="I2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="J2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660705</v>
       </c>
       <c r="K2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660704</v>
+        <v>205260.4424660706</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660708</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552181</v>
+        <v>59764.55367552202</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>37580.10929487411</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22821.46782983369</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25409.43302179698</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>37580.10929487406</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22821.46782983372</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25409.43302179695</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>37580.10929487407</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26421,7 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913879</v>
+        <v>439568.9169913878</v>
       </c>
       <c r="E4" t="n">
         <v>41244.04987367435</v>
@@ -26430,16 +26430,16 @@
         <v>41244.04987367435</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.21023511657</v>
+        <v>78272.21023511665</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511657</v>
+        <v>78272.21023511661</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.8596205746</v>
+        <v>93189.85962057466</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226076</v>
+        <v>93063.75099226084</v>
       </c>
       <c r="K4" t="n">
         <v>93063.75099226073</v>
@@ -26448,16 +26448,16 @@
         <v>93063.75099226076</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="N4" t="n">
+        <v>93403.78684820639</v>
+      </c>
+      <c r="O4" t="n">
         <v>93403.78684820633</v>
       </c>
-      <c r="O4" t="n">
-        <v>93403.78684820635</v>
-      </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820642</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186634</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521489</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-291959.2464228501</v>
+        <v>-291963.6600007183</v>
       </c>
       <c r="C6" t="n">
-        <v>-291959.2464228502</v>
+        <v>-291963.6600007183</v>
       </c>
       <c r="D6" t="n">
-        <v>-329657.7086472894</v>
+        <v>-329662.0663974354</v>
       </c>
       <c r="E6" t="n">
-        <v>-1024667.51217589</v>
+        <v>-1024896.266598288</v>
       </c>
       <c r="F6" t="n">
-        <v>64571.45998774286</v>
+        <v>64342.7055653447</v>
       </c>
       <c r="G6" t="n">
-        <v>2261.742656428702</v>
+        <v>2195.465284884189</v>
       </c>
       <c r="H6" t="n">
-        <v>39841.85195130276</v>
+        <v>39775.57457975834</v>
       </c>
       <c r="I6" t="n">
-        <v>3512.586713820376</v>
+        <v>3512.586713820434</v>
       </c>
       <c r="J6" t="n">
-        <v>-2590.683222793072</v>
+        <v>-2590.68322279345</v>
       </c>
       <c r="K6" t="n">
         <v>22818.74979900394</v>
       </c>
       <c r="L6" t="n">
-        <v>-14761.35949587051</v>
+        <v>-14761.35949587036</v>
       </c>
       <c r="M6" t="n">
-        <v>-172830.0416811096</v>
+        <v>-172830.0416811097</v>
       </c>
       <c r="N6" t="n">
-        <v>29338.05831161457</v>
+        <v>29338.05831161454</v>
       </c>
       <c r="O6" t="n">
-        <v>29338.0583116146</v>
+        <v>29338.05831161467</v>
       </c>
       <c r="P6" t="n">
-        <v>29338.05831161462</v>
+        <v>29338.05831161448</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790528</v>
+        <v>69.78465283790553</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26920,34 +26920,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>46.97513661859264</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951249</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790528</v>
+        <v>69.78465283790553</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755393</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959706</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104728</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780177</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036573</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672114</v>
+        <v>84.22861846672113</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987533</v>
+        <v>90.8382912698753</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519099</v>
+        <v>84.46220888519095</v>
       </c>
       <c r="K10" t="n">
-        <v>7.64903505099057</v>
+        <v>7.64903505099052</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317069</v>
+        <v>75.62456067317065</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="D19" t="n">
-        <v>11.49558901075611</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571898</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571898</v>
+        <v>73.89528320571905</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E22" t="n">
-        <v>11.49558901075608</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571898</v>
+        <v>11.4955890107565</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571898</v>
+        <v>11.4955890107565</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="H25" t="n">
-        <v>11.49558901075608</v>
+        <v>73.895283205719</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571898</v>
+        <v>73.895283205719</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859381</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F37" t="n">
-        <v>54.1454821454443</v>
+        <v>55.47778196371146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>54.14548214544376</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>46.72521440565343</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810499</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>54.14548214544379</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.14548214544374</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>46.72521440565308</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413276</v>
+        <v>0.2805413179413285</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366622</v>
+        <v>2.873093772366631</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993304</v>
+        <v>10.81556915993308</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362277</v>
+        <v>23.81059368362286</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207917</v>
+        <v>35.6859076720793</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102609</v>
+        <v>44.27152403102624</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396517</v>
+        <v>49.26060069396534</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356597</v>
+        <v>50.05768871356614</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328689</v>
+        <v>47.26805598328706</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661036</v>
+        <v>40.3421921966105</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783656</v>
+        <v>30.29530624783666</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313193</v>
+        <v>17.62255356313199</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588008</v>
+        <v>6.39283528258803</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288162</v>
+        <v>1.228069619288166</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353062</v>
+        <v>0.02244330543530628</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796453</v>
+        <v>0.1501028381796458</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840259</v>
+        <v>1.449677410840264</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693929</v>
+        <v>5.168014384693948</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906904</v>
+        <v>14.18142647906909</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710527</v>
+        <v>24.23831663710536</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264624</v>
+        <v>32.59140791264635</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665838</v>
+        <v>38.0326357966585</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655609</v>
+        <v>39.03924649655622</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847026</v>
+        <v>35.71328360847038</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449736</v>
+        <v>28.66305863449746</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447543</v>
+        <v>19.1604956244755</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767808</v>
+        <v>9.319542882767839</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608761</v>
+        <v>2.788094384608771</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890088</v>
+        <v>0.6050197731890109</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345091</v>
+        <v>0.009875186722345126</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486817</v>
+        <v>0.1258411772486821</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811007</v>
+        <v>1.118842466811011</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078536</v>
+        <v>3.78438740307855</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481793</v>
+        <v>8.896971231481823</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489228</v>
+        <v>14.62045677489233</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477218</v>
+        <v>18.70915102477225</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908198</v>
+        <v>19.72617653908204</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115509</v>
+        <v>19.25713215115515</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875003</v>
+        <v>17.78707839875009</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287691</v>
+        <v>15.21991838287696</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.5374825785237</v>
+        <v>10.53748257852373</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338163</v>
+        <v>5.658276933381649</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233842</v>
+        <v>2.19306851623385</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625488</v>
+        <v>0.5376850300625505</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564462</v>
+        <v>0.006864064213564485</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573246</v>
@@ -35577,13 +35577,13 @@
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35817,13 +35817,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>442.1926768887793</v>
       </c>
       <c r="L23" t="n">
-        <v>795.4045397707665</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>643.8787818643256</v>
+        <v>614.4119707098162</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>798.527218419729</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>459.9130612972796</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>827.137011779454</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737876</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597722</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887919</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861318</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
